--- a/調査資料/内部資料/①円弧配列_工程チェック.xlsx
+++ b/調査資料/内部資料/①円弧配列_工程チェック.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="調査・検討" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="218">
   <si>
     <t>前準備</t>
     <rPh sb="0" eb="1">
@@ -148,19 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>環境ファイル（App.Config等）の設定</t>
-    <rPh sb="0" eb="2">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「刻印文字」取得・保存</t>
     <rPh sb="1" eb="3">
       <t>コクイン</t>
@@ -832,19 +819,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通信データ内容を調査</t>
-    <rPh sb="0" eb="2">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1046,6 +1020,758 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INIファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作図属性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BR_ATRBUT.ini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義内容の確認と用途を調査</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BR_DRAWCONF.ini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作図処理パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境の設定</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信データ内容を（従来通りで良いかも含み）調査</t>
+    <rPh sb="0" eb="2">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態遷移図</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準線</t>
+    <rPh sb="0" eb="3">
+      <t>キジュンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「基準線」の状態遷移図</t>
+    <rPh sb="6" eb="11">
+      <t>ジョウタイセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平</t>
+    <rPh sb="0" eb="1">
+      <t>タイラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>「タイヤ円」の状態遷移図</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>ジョウタイセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントによる内部状態の遷移図を作成</t>
+    <rPh sb="7" eb="9">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>センイズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    〃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BR_Set.ini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BrandVB システム設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリングコード表</t>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刻印文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼出</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モールド番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工場コード</t>
+    <rPh sb="0" eb="2">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E番号</t>
+    <rPh sb="1" eb="3">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新Ｉマーク</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターンコード文字</t>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズコード文字</t>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードインデックス(S)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードインデックス(D)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LT, C文字</t>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR文字</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空気圧の文字</t>
+    <rPh sb="0" eb="3">
+      <t>クウキアツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTQG文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荷重規格の文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライのスペック文字１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライのスペック文字２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他の文字</t>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ラベリングコード表」の状態遷移図</t>
+    <rPh sb="12" eb="17">
+      <t>ジョウタイセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「刻印文字」の状態遷移図</t>
+    <rPh sb="7" eb="12">
+      <t>ジョウタイセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「編集文字」の状態遷移図</t>
+    <rPh sb="7" eb="12">
+      <t>ジョウタイセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「AT-B図面登録」の状態遷移図</t>
+    <rPh sb="11" eb="16">
+      <t>ジョウタイセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>替え駒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「替え駒」の状態遷移図</t>
+    <rPh sb="6" eb="11">
+      <t>ジョウタイセンイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「モールド番号」の状態遷移図</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「セリアル」の状態遷移図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「工場コード」の状態遷移図</t>
+    <rPh sb="1" eb="3">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「E番号」の状態遷移図</t>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「新Ｉマーク」の状態遷移図</t>
+    <rPh sb="1" eb="2">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パターンコード文字」の状態遷移図</t>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「サイズコード文字」の状態遷移図</t>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ロードインデックス(S)」の状態遷移図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ロードインデックス(D)」の状態遷移図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「LT, C文字」の状態遷移図</t>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「PR文字」の状態遷移図</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「空気圧の文字」の状態遷移図</t>
+    <rPh sb="1" eb="4">
+      <t>クウキアツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「UTQG文字」の状態遷移図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「荷重規格の文字」の状態遷移図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「プライのスペック文字１」の状態遷移図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「プライのスペック文字２」の状態遷移図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「その他の文字」の状態遷移図</t>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリングのグループ化</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベリングの配置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ラベリングのグループ化」の状態遷移図</t>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ラベリングの配置」の状態遷移図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス構成図</t>
+    <rPh sb="3" eb="6">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム構成図</t>
+    <rPh sb="4" eb="7">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム構成図を作成</t>
+    <rPh sb="4" eb="7">
+      <t>コウセイズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「円弧配列」クラス構成図を作成</t>
+    <rPh sb="1" eb="3">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コウセイズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通クラス</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体的な共通機能の洗い出しと共通クラスの設計</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード作成しながらの設計含む</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作図クラス</t>
+    <rPh sb="0" eb="2">
+      <t>サクズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoCADイベントハンドラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoCAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoCADのメニュー調査</t>
+    <rPh sb="12" eb="14">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoCADでのメニュー実現方法を調査</t>
+    <rPh sb="13" eb="15">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FlexGrid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FlexGrid調査</t>
+    <rPh sb="8" eb="10">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VBの文字編集画面で使用しているMSFlexGridの設定を調査</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSFlexGridを使った画面が表示されない</t>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoCADからのイベントハンドラを設計</t>
+    <rPh sb="19" eb="21">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス間通信</t>
+    <rPh sb="4" eb="5">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB画面アプリとのDDE通信クラスを設計</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「円弧配列」の作図で共通化できる処理の洗い出しとクラスの設計</t>
+    <rPh sb="7" eb="9">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>キョウツウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ起動</t>
+    <rPh sb="3" eb="5">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VB画面アプリの起動クラスを設計</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1163,7 +1889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,11 +1923,154 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1561,9 +2430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L154"/>
+  <dimension ref="B2:L166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1571,7 +2442,7 @@
     <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
     <col min="6" max="6" width="43" customWidth="1"/>
     <col min="7" max="7" width="45.625" customWidth="1"/>
     <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
@@ -1582,14 +2453,14 @@
   <sheetData>
     <row r="2" spans="2:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1604,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -1646,10 +2517,10 @@
         <v>44776</v>
       </c>
       <c r="J5" s="4">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="L5" s="5"/>
     </row>
@@ -1664,10 +2535,18 @@
         <v>15</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>44776</v>
+      </c>
+      <c r="J6" s="4">
+        <v>44777</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
@@ -1681,10 +2560,18 @@
         <v>16</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>44777</v>
+      </c>
+      <c r="J7" s="4">
+        <v>44777</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
@@ -1695,13 +2582,19 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="5" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>44777</v>
+      </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
@@ -1739,24 +2632,26 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
@@ -1767,10 +2662,10 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
@@ -1786,10 +2681,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
@@ -1805,10 +2700,10 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
@@ -1824,10 +2719,10 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
@@ -1843,10 +2738,10 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
@@ -1862,10 +2757,10 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
@@ -1881,10 +2776,10 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="4"/>
@@ -1900,10 +2795,10 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="4"/>
@@ -1919,10 +2814,10 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
@@ -1938,10 +2833,10 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="4"/>
@@ -1957,10 +2852,10 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="4"/>
@@ -1976,10 +2871,10 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
@@ -1995,10 +2890,10 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="4"/>
@@ -2014,10 +2909,10 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="4"/>
@@ -2033,10 +2928,10 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="4"/>
@@ -2052,10 +2947,10 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="4"/>
@@ -2071,10 +2966,10 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="4"/>
@@ -2090,10 +2985,10 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="4"/>
@@ -2108,13 +3003,13 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="G30" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="4"/>
@@ -2130,10 +3025,10 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="4"/>
@@ -2149,10 +3044,10 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="4"/>
@@ -2168,10 +3063,10 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="4"/>
@@ -2187,10 +3082,10 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
@@ -2206,10 +3101,10 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="4"/>
@@ -2225,10 +3120,10 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="4"/>
@@ -2244,10 +3139,10 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="4"/>
@@ -2263,10 +3158,10 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="4"/>
@@ -2282,10 +3177,10 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="4"/>
@@ -2301,10 +3196,10 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="4"/>
@@ -2320,10 +3215,10 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="4"/>
@@ -2339,10 +3234,10 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="4"/>
@@ -2358,10 +3253,10 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="4"/>
@@ -2377,10 +3272,10 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="4"/>
@@ -2396,10 +3291,10 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="4"/>
@@ -2415,10 +3310,10 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="4"/>
@@ -2434,10 +3329,10 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="4"/>
@@ -2453,10 +3348,10 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="4"/>
@@ -2471,20 +3366,20 @@
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="G49" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="3"/>
       <c r="L49" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
@@ -2495,17 +3390,17 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="3"/>
       <c r="L50" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
@@ -2516,17 +3411,17 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="3"/>
       <c r="L51" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
@@ -2537,17 +3432,17 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="3"/>
       <c r="L52" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
@@ -2558,17 +3453,17 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="3"/>
       <c r="L53" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
@@ -2579,17 +3474,17 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="3"/>
       <c r="L54" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
@@ -2600,17 +3495,17 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="3"/>
       <c r="L55" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
@@ -2621,17 +3516,17 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="3"/>
       <c r="L56" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.4">
@@ -2642,17 +3537,17 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="3"/>
       <c r="L57" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.4">
@@ -2663,17 +3558,17 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="3"/>
       <c r="L58" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.4">
@@ -2684,17 +3579,17 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="3"/>
       <c r="L59" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
@@ -2705,17 +3600,17 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="3"/>
       <c r="L60" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.4">
@@ -2726,17 +3621,17 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="3"/>
       <c r="L61" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.4">
@@ -2747,17 +3642,17 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="3"/>
       <c r="L62" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
@@ -2768,17 +3663,17 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="3"/>
       <c r="L63" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.4">
@@ -2789,17 +3684,17 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="3"/>
       <c r="L64" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.4">
@@ -2810,17 +3705,17 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="3"/>
       <c r="L65" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.4">
@@ -2831,17 +3726,17 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="3"/>
       <c r="L66" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.4">
@@ -2852,17 +3747,17 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="3"/>
       <c r="L67" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
@@ -2900,26 +3795,26 @@
         <v>66</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="F70" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="3"/>
       <c r="L70" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.4">
@@ -2930,17 +3825,17 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="3"/>
       <c r="L71" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.4">
@@ -2951,17 +3846,17 @@
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="3"/>
       <c r="L72" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
@@ -2972,17 +3867,17 @@
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="3"/>
       <c r="L73" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
@@ -2993,17 +3888,17 @@
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="3"/>
       <c r="L74" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
@@ -3014,17 +3909,17 @@
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="3"/>
       <c r="L75" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
@@ -3035,17 +3930,17 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="3"/>
       <c r="L76" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
@@ -3056,17 +3951,17 @@
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="3"/>
       <c r="L77" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
@@ -3077,17 +3972,17 @@
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="3"/>
       <c r="L78" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
@@ -3098,17 +3993,17 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="3"/>
       <c r="L79" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.4">
@@ -3119,17 +4014,17 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="3"/>
       <c r="L80" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.4">
@@ -3140,17 +4035,17 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="3"/>
       <c r="L81" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.4">
@@ -3161,17 +4056,17 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="3"/>
       <c r="L82" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.4">
@@ -3182,17 +4077,17 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3"/>
       <c r="L83" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.4">
@@ -3203,17 +4098,17 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="3"/>
       <c r="L84" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.4">
@@ -3224,17 +4119,17 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="3"/>
       <c r="L85" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.4">
@@ -3245,17 +4140,17 @@
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="3"/>
       <c r="L86" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.4">
@@ -3266,17 +4161,17 @@
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="3"/>
       <c r="L87" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.4">
@@ -3287,17 +4182,17 @@
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="3"/>
       <c r="L88" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.4">
@@ -3306,24 +4201,22 @@
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="6" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="3"/>
-      <c r="L89" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="L89" s="5"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B90" s="3">
@@ -3331,22 +4224,20 @@
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="9" t="s">
-        <v>70</v>
+      <c r="E90" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="3"/>
-      <c r="L90" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="L90" s="5"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B91" s="3">
@@ -3354,9 +4245,15 @@
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
+      <c r="E91" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="H91" s="3"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -3412,20 +4309,18 @@
       <c r="B95" s="3">
         <v>91</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="C95" s="7"/>
       <c r="D95" s="6" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="4"/>
@@ -3439,15 +4334,9 @@
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
       <c r="H96" s="3"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -3461,19 +4350,13 @@
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
       <c r="H97" s="3"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="3"/>
-      <c r="L97" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="L97" s="5"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B98" s="3">
@@ -3490,6 +4373,2905 @@
       <c r="K98" s="3"/>
       <c r="L98" s="5"/>
     </row>
+    <row r="99" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B99" s="3">
+        <v>95</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B100" s="3">
+        <v>96</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B101" s="3">
+        <v>97</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H101" s="3"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B102" s="3">
+        <v>98</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B103" s="3">
+        <v>99</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B104" s="3">
+        <v>100</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B105" s="3">
+        <v>101</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B106" s="3">
+        <v>102</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B107" s="3">
+        <v>103</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B108" s="3">
+        <v>104</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B109" s="3">
+        <v>105</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B110" s="3">
+        <v>106</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B111" s="3">
+        <v>107</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B112" s="3">
+        <v>108</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B113" s="3">
+        <v>109</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B114" s="3">
+        <v>110</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B115" s="3">
+        <v>111</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="5"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B116" s="3">
+        <v>112</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="5"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B117" s="3">
+        <v>113</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="5"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B118" s="3">
+        <v>114</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="5"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B119" s="3">
+        <v>115</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="5"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B120" s="3">
+        <v>116</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="5"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B121" s="3">
+        <v>117</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="5"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B122" s="3">
+        <v>118</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B123" s="3">
+        <v>119</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B124" s="3">
+        <v>120</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B125" s="3">
+        <v>121</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="5"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B126" s="3">
+        <v>122</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="5"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B127" s="3">
+        <v>123</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="5"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B128" s="3">
+        <v>124</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="5"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B129" s="3">
+        <v>125</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="5"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B130" s="3">
+        <v>126</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="5"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B131" s="3">
+        <v>127</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="5"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B132" s="3">
+        <v>128</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="5"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B133" s="3">
+        <v>129</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="5"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B134" s="3">
+        <v>130</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="5"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B135" s="3">
+        <v>131</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="5"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B136" s="3">
+        <v>132</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="5"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B137" s="3">
+        <v>133</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="5"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B138" s="3">
+        <v>134</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="5"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B139" s="3">
+        <v>135</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="5"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B140" s="3">
+        <v>136</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="5"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B141" s="3">
+        <v>137</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="5"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B142" s="3">
+        <v>138</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="5"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B143" s="3">
+        <v>139</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="5"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B144" s="3">
+        <v>140</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="5"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B145" s="3">
+        <v>141</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="5"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B146" s="3">
+        <v>142</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="5"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B147" s="3">
+        <v>143</v>
+      </c>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="5"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B148" s="3">
+        <v>144</v>
+      </c>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="5"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B149" s="3">
+        <v>145</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="5"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B150" s="3">
+        <v>146</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="5"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B151" s="3">
+        <v>147</v>
+      </c>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="5"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B152" s="3">
+        <v>148</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="5"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B153" s="3">
+        <v>149</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="5"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B154" s="3">
+        <v>150</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="5"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B155" s="3">
+        <v>151</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="5"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B156" s="3">
+        <v>152</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B157" s="3">
+        <v>153</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="5"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B158" s="3">
+        <v>154</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="5"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B159" s="3">
+        <v>155</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="5"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B160" s="3">
+        <v>156</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B161" s="3">
+        <v>157</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="5"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B162" s="3">
+        <v>158</v>
+      </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="5"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B163" s="3">
+        <v>159</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="5"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B164" s="3">
+        <v>160</v>
+      </c>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="5"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B165" s="3">
+        <v>161</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="5"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B166" s="3">
+        <v>162</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="F68:L69 F101:L166 F5:L6">
+    <cfRule type="expression" dxfId="30" priority="19">
+      <formula>$K5="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:G7 L7">
+    <cfRule type="expression" dxfId="29" priority="18">
+      <formula>$K7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:L48 F8:G8 J8:L8">
+    <cfRule type="expression" dxfId="28" priority="17">
+      <formula>$K8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:L67">
+    <cfRule type="expression" dxfId="27" priority="15">
+      <formula>$K49="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:K88">
+    <cfRule type="expression" dxfId="26" priority="14">
+      <formula>$K70="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:L71">
+    <cfRule type="expression" dxfId="25" priority="13">
+      <formula>$K70="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72:L88">
+    <cfRule type="expression" dxfId="24" priority="12">
+      <formula>$K72="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93:L94">
+    <cfRule type="expression" dxfId="23" priority="11">
+      <formula>$K93="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89:L89 F90 H90:L90">
+    <cfRule type="expression" dxfId="22" priority="10">
+      <formula>$K89="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="expression" dxfId="21" priority="9">
+      <formula>$K90="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:L92 F91 H91:L91">
+    <cfRule type="expression" dxfId="20" priority="8">
+      <formula>$K91="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
+    <cfRule type="expression" dxfId="19" priority="7">
+      <formula>$K91="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:K7">
+    <cfRule type="expression" dxfId="18" priority="6">
+      <formula>$K7="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="expression" dxfId="17" priority="5">
+      <formula>$K8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:L95">
+    <cfRule type="expression" dxfId="16" priority="4">
+      <formula>$K95="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96:L96 F98:L98">
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>$K96="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97:L97">
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>$K97="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99:L100">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$K99="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K166">
+      <formula1>"対応中,完了,－"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="33.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="4">
+        <v>44774</v>
+      </c>
+      <c r="J5" s="4">
+        <v>44774</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="4">
+        <v>44775</v>
+      </c>
+      <c r="J6" s="4">
+        <v>44775</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="3">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="3">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="3">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="3">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="3">
+        <v>20</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="3">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="3">
+        <v>22</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="3">
+        <v>23</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="3">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="3">
+        <v>25</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B30" s="3">
+        <v>26</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="3">
+        <v>27</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="3">
+        <v>28</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B33" s="3">
+        <v>29</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B34" s="3">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B35" s="3">
+        <v>31</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B36" s="3">
+        <v>32</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B37" s="3">
+        <v>33</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B38" s="3">
+        <v>34</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B39" s="3">
+        <v>35</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B40" s="3">
+        <v>36</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B41" s="3">
+        <v>37</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B42" s="3">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B43" s="3">
+        <v>39</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B44" s="3">
+        <v>40</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B45" s="3">
+        <v>41</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B46" s="3">
+        <v>42</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B47" s="3">
+        <v>43</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B48" s="3">
+        <v>44</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B49" s="3">
+        <v>45</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B50" s="3">
+        <v>46</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B51" s="3">
+        <v>47</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B52" s="3">
+        <v>48</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B53" s="3">
+        <v>49</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B54" s="3">
+        <v>50</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B55" s="3">
+        <v>51</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B56" s="3">
+        <v>52</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B57" s="3">
+        <v>53</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B58" s="3">
+        <v>54</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B59" s="3">
+        <v>55</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B60" s="3">
+        <v>56</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B61" s="3">
+        <v>57</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B62" s="3">
+        <v>58</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B63" s="3">
+        <v>59</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B64" s="3">
+        <v>60</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B65" s="3">
+        <v>61</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B66" s="3">
+        <v>62</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B67" s="3">
+        <v>63</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B68" s="3">
+        <v>64</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B69" s="3">
+        <v>65</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B70" s="3">
+        <v>66</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B71" s="3">
+        <v>67</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B72" s="3">
+        <v>68</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B73" s="3">
+        <v>69</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B74" s="3">
+        <v>70</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B75" s="3">
+        <v>71</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B76" s="3">
+        <v>72</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B77" s="3">
+        <v>73</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B78" s="3">
+        <v>74</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B79" s="3">
+        <v>75</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B80" s="3">
+        <v>76</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B81" s="3">
+        <v>77</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B82" s="3">
+        <v>78</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="5"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B83" s="3">
+        <v>79</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B84" s="3">
+        <v>80</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B85" s="3">
+        <v>81</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B86" s="3">
+        <v>82</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B87" s="3">
+        <v>83</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B88" s="3">
+        <v>84</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B89" s="3">
+        <v>85</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B90" s="3">
+        <v>86</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B91" s="3">
+        <v>87</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B92" s="3">
+        <v>88</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="5"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B93" s="3">
+        <v>89</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B94" s="3">
+        <v>90</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B95" s="3">
+        <v>91</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B96" s="3">
+        <v>92</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B97" s="3">
+        <v>93</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B98" s="3">
+        <v>94</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="5"/>
+    </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B99" s="3">
         <v>95</v>
@@ -3505,23 +7287,15 @@
       <c r="K99" s="3"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="2:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B100" s="3">
         <v>96</v>
       </c>
       <c r="C100" s="7"/>
-      <c r="D100" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
       <c r="H100" s="3"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -4327,9 +8101,9 @@
       <c r="B154" s="3">
         <v>150</v>
       </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="3"/>
@@ -4338,2394 +8112,133 @@
       <c r="K154" s="3"/>
       <c r="L154" s="5"/>
     </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B155" s="3">
+        <v>151</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="5"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B156" s="3">
+        <v>152</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B157" s="3">
+        <v>153</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="5"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B158" s="3">
+        <v>154</v>
+      </c>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F5:L6 F68:L69 F89:L154">
-    <cfRule type="expression" dxfId="10" priority="8">
+  <conditionalFormatting sqref="F106:L156 F5:L6">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$K5="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:L7">
-    <cfRule type="expression" dxfId="9" priority="7">
+  <conditionalFormatting sqref="H7:L7">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$K7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:L48">
-    <cfRule type="expression" dxfId="8" priority="6">
+  <conditionalFormatting sqref="F35:L37 H8:L34 F42:L105">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$K8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49:L67">
-    <cfRule type="expression" dxfId="7" priority="4">
-      <formula>$K49="完了"</formula>
+  <conditionalFormatting sqref="F157:L158">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$K157="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70:K88">
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>$K70="完了"</formula>
+  <conditionalFormatting sqref="F7:G7">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$K7="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:L71">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>$K70="完了"</formula>
+  <conditionalFormatting sqref="F8:G13 G14:G30">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$K8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L72:L88">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$K72="完了"</formula>
+  <conditionalFormatting sqref="G31:G32">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$K31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:L41">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$K41="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:L38 F40:L40">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$K38="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:L39">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$K39="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:L39">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$K39="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:L40">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$K40="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K154">
-      <formula1>"対応中,完了,－"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L154"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="43" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="33.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B10" s="3">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B11" s="3">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="3">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="3">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="3">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="3">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="3">
-        <v>14</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="3">
-        <v>15</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="3">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="3">
-        <v>17</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B22" s="3">
-        <v>18</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="3">
-        <v>19</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="3">
-        <v>20</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="3">
-        <v>21</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B26" s="3">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="3">
-        <v>23</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B28" s="3">
-        <v>24</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B29" s="3">
-        <v>25</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B30" s="3">
-        <v>26</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="3">
-        <v>27</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B32" s="3">
-        <v>28</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B33" s="3">
-        <v>29</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B34" s="3">
-        <v>30</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="3">
-        <v>31</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B36" s="3">
-        <v>32</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B37" s="3">
-        <v>33</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B38" s="3">
-        <v>34</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B39" s="3">
-        <v>35</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B40" s="3">
-        <v>36</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B41" s="3">
-        <v>37</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B42" s="3">
-        <v>38</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B43" s="3">
-        <v>39</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B44" s="3">
-        <v>40</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B45" s="3">
-        <v>41</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B46" s="3">
-        <v>42</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B47" s="3">
-        <v>43</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B48" s="3">
-        <v>44</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B49" s="3">
-        <v>45</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B50" s="3">
-        <v>46</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B51" s="3">
-        <v>47</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B52" s="3">
-        <v>48</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="3">
-        <v>49</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B54" s="3">
-        <v>50</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B55" s="3">
-        <v>51</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B56" s="3">
-        <v>52</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="5"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B57" s="3">
-        <v>53</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B58" s="3">
-        <v>54</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="5"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B59" s="3">
-        <v>55</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="5"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B60" s="3">
-        <v>56</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="5"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B61" s="3">
-        <v>57</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B62" s="3">
-        <v>58</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B63" s="3">
-        <v>59</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="5"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B64" s="3">
-        <v>60</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="5"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B65" s="3">
-        <v>61</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="5"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B66" s="3">
-        <v>62</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="5"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B67" s="3">
-        <v>63</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="5"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B68" s="3">
-        <v>64</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B69" s="3">
-        <v>65</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="5"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B70" s="3">
-        <v>66</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="5"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B71" s="3">
-        <v>67</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="5"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B72" s="3">
-        <v>68</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="5"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B73" s="3">
-        <v>69</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="5"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B74" s="3">
-        <v>70</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="5"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B75" s="3">
-        <v>71</v>
-      </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="5"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B76" s="3">
-        <v>72</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="5"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B77" s="3">
-        <v>73</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="5"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B78" s="3">
-        <v>74</v>
-      </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="5"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B79" s="3">
-        <v>75</v>
-      </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="5"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B80" s="3">
-        <v>76</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="5"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B81" s="3">
-        <v>77</v>
-      </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="5"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B82" s="3">
-        <v>78</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="5"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B83" s="3">
-        <v>79</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="5"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B84" s="3">
-        <v>80</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B85" s="3">
-        <v>81</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="5"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B86" s="3">
-        <v>82</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="5"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B87" s="3">
-        <v>83</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="5"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B88" s="3">
-        <v>84</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="5"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B89" s="3">
-        <v>85</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="5"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B90" s="3">
-        <v>86</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="5"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B91" s="3">
-        <v>87</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="5"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B92" s="3">
-        <v>88</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="5"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B93" s="3">
-        <v>89</v>
-      </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="5"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B94" s="3">
-        <v>90</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="5"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B95" s="3">
-        <v>91</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="5"/>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B96" s="3">
-        <v>92</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="5"/>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B97" s="3">
-        <v>93</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="5"/>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B98" s="3">
-        <v>94</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="5"/>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B99" s="3">
-        <v>95</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="5"/>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B100" s="3">
-        <v>96</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="5"/>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B101" s="3">
-        <v>97</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="5"/>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B102" s="3">
-        <v>98</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="5"/>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B103" s="3">
-        <v>99</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="5"/>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B104" s="3">
-        <v>100</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="5"/>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B105" s="3">
-        <v>101</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="5"/>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B106" s="3">
-        <v>102</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="5"/>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B107" s="3">
-        <v>103</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="5"/>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B108" s="3">
-        <v>104</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="5"/>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B109" s="3">
-        <v>105</v>
-      </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="5"/>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B110" s="3">
-        <v>106</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="5"/>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B111" s="3">
-        <v>107</v>
-      </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="5"/>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B112" s="3">
-        <v>108</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="5"/>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B113" s="3">
-        <v>109</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="5"/>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B114" s="3">
-        <v>110</v>
-      </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="5"/>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B115" s="3">
-        <v>111</v>
-      </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="5"/>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B116" s="3">
-        <v>112</v>
-      </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="5"/>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B117" s="3">
-        <v>113</v>
-      </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="5"/>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B118" s="3">
-        <v>114</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="5"/>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B119" s="3">
-        <v>115</v>
-      </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="5"/>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B120" s="3">
-        <v>116</v>
-      </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="5"/>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B121" s="3">
-        <v>117</v>
-      </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="5"/>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B122" s="3">
-        <v>118</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="5"/>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B123" s="3">
-        <v>119</v>
-      </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="5"/>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B124" s="3">
-        <v>120</v>
-      </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="5"/>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B125" s="3">
-        <v>121</v>
-      </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="5"/>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B126" s="3">
-        <v>122</v>
-      </c>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="5"/>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B127" s="3">
-        <v>123</v>
-      </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="5"/>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B128" s="3">
-        <v>124</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="5"/>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B129" s="3">
-        <v>125</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="5"/>
-    </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B130" s="3">
-        <v>126</v>
-      </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="5"/>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B131" s="3">
-        <v>127</v>
-      </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="5"/>
-    </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B132" s="3">
-        <v>128</v>
-      </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="5"/>
-    </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B133" s="3">
-        <v>129</v>
-      </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="5"/>
-    </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B134" s="3">
-        <v>130</v>
-      </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="5"/>
-    </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B135" s="3">
-        <v>131</v>
-      </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="5"/>
-    </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B136" s="3">
-        <v>132</v>
-      </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="3"/>
-      <c r="L136" s="5"/>
-    </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B137" s="3">
-        <v>133</v>
-      </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="3"/>
-      <c r="L137" s="5"/>
-    </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B138" s="3">
-        <v>134</v>
-      </c>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="3"/>
-      <c r="L138" s="5"/>
-    </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B139" s="3">
-        <v>135</v>
-      </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="5"/>
-    </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B140" s="3">
-        <v>136</v>
-      </c>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="5"/>
-    </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B141" s="3">
-        <v>137</v>
-      </c>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="5"/>
-    </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B142" s="3">
-        <v>138</v>
-      </c>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="5"/>
-    </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B143" s="3">
-        <v>139</v>
-      </c>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="3"/>
-      <c r="L143" s="5"/>
-    </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B144" s="3">
-        <v>140</v>
-      </c>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="5"/>
-    </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B145" s="3">
-        <v>141</v>
-      </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="5"/>
-    </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B146" s="3">
-        <v>142</v>
-      </c>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="5"/>
-    </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B147" s="3">
-        <v>143</v>
-      </c>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="3"/>
-      <c r="L147" s="5"/>
-    </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B148" s="3">
-        <v>144</v>
-      </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="3"/>
-      <c r="L148" s="5"/>
-    </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B149" s="3">
-        <v>145</v>
-      </c>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="5"/>
-    </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B150" s="3">
-        <v>146</v>
-      </c>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="5"/>
-    </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B151" s="3">
-        <v>147</v>
-      </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="3"/>
-      <c r="L151" s="5"/>
-    </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B152" s="3">
-        <v>148</v>
-      </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="3"/>
-      <c r="L152" s="5"/>
-    </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B153" s="3">
-        <v>149</v>
-      </c>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="3"/>
-      <c r="L153" s="5"/>
-    </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B154" s="3">
-        <v>150</v>
-      </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="3"/>
-      <c r="L154" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F5:L6 F102:L152">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$K5="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:L7">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$K7="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:L101">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$K8="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F153:L154">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$K153="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K154">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K158">
       <formula1>"対応中,完了,－"</formula1>
     </dataValidation>
   </dataValidations>
